--- a/excel.xlsx
+++ b/excel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\Masaüstü\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lenovo\OneDrive\Masaüstü\staj1.0\convert_excel_to_word\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC085E4D-D91A-4BDF-90E1-DE25993279BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9611A16B-A22E-4F36-BE74-B60D49E7EFDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C0AC2E10-A5D6-4139-95BA-BDF250C83518}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{C0AC2E10-A5D6-4139-95BA-BDF250C83518}"/>
   </bookViews>
   <sheets>
     <sheet name="Sayfa1" sheetId="1" r:id="rId1"/>
@@ -47,12 +47,6 @@
     <t>Project Name</t>
   </si>
   <si>
-    <t>sudem</t>
-  </si>
-  <si>
-    <t>alper demirhan</t>
-  </si>
-  <si>
     <t xml:space="preserve">bm </t>
   </si>
   <si>
@@ -102,6 +96,12 @@
   </si>
   <si>
     <t>end</t>
+  </si>
+  <si>
+    <t>xyz</t>
+  </si>
+  <si>
+    <t>sudem aydın</t>
   </si>
 </sst>
 </file>
@@ -478,7 +478,7 @@
   <dimension ref="A1:V4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -495,7 +495,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
@@ -504,72 +504,72 @@
         <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>18</v>
-      </c>
       <c r="R1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="T1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="V1" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>22290349</v>
+        <v>22290350</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="D2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E2" s="1">
         <v>5</v>
@@ -628,16 +628,16 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>22290350</v>
+        <v>22290351</v>
       </c>
       <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
         <v>20</v>
       </c>
-      <c r="C3" t="s">
-        <v>4</v>
-      </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="E3" s="1">
         <v>3</v>
@@ -696,7 +696,7 @@
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
